--- a/discoverdefiteam/evidence.xlsx
+++ b/discoverdefiteam/evidence.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>TeamName</t>
   </si>
@@ -60,6 +60,63 @@
   <si>
     <t>Terp Network</t>
   </si>
+  <si>
+    <t>EVIDENCE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>D421CB4DE071399EFBDEC06BE9436D59CCDF12A1F53F1DDF6087E209FF61B50D</t>
+  </si>
+  <si>
+    <t>Create one Collection on IRISnet</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>4AEC26EAB7A109EA9B5B94B07A0B56EAD10F01E894D8898A04FF97B07053A84B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mint NFTs on IRISnet        </t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>6F8E52A715675C2389CAC2E011FBB2A52F1E3FBBE614835D8F96DE5D61832F41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer an NFT from IRISnet to Juno or Stargaze        </t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>5A686357398CE6941550283D7B8808B444F1AB166A9571686E1877AE34CFBB8E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer an NFT from IRISnet to Uptick or OmniFlix        </t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer the NFT on Stargaze or Juno back to IRISnet        </t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer the NFT on Uptick or OmniFlix back to IRISnet        </t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -116,6 +173,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -331,6 +391,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="12" max="12" width="14.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -358,7 +421,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -366,7 +429,6 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -402,7 +464,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -410,7 +472,6 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -430,15 +491,14 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -449,7 +509,9 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -458,15 +520,13 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -477,9 +537,15 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -487,14 +553,13 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -505,9 +570,15 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -515,14 +586,13 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -533,9 +603,15 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -543,14 +619,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -561,9 +636,15 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -571,14 +652,13 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -589,9 +669,15 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -599,14 +685,13 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -617,24 +702,20 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -645,24 +726,27 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -683,14 +767,13 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -710,15 +793,14 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -739,14 +821,13 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -774,7 +855,6 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
